--- a/Curation/Media/KBASE_MEDIAS/MMB_neg.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/MMB_neg.xlsx
@@ -615,7 +615,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -635,7 +635,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -655,7 +655,7 @@
         <v>-100</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -675,7 +675,7 @@
         <v>-100</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -695,7 +695,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -715,7 +715,7 @@
         <v>-100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0.001</v>
@@ -735,7 +735,7 @@
         <v>-100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0.001</v>
@@ -755,7 +755,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -775,7 +775,7 @@
         <v>-100</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0.001</v>
@@ -795,7 +795,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -815,7 +815,7 @@
         <v>-100</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>0.001</v>
@@ -835,7 +835,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -855,7 +855,7 @@
         <v>-100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0.001</v>
@@ -875,7 +875,7 @@
         <v>-100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0.001</v>
@@ -895,7 +895,7 @@
         <v>-100</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0.001</v>
@@ -935,7 +935,7 @@
         <v>-100</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>0.001</v>
@@ -955,7 +955,7 @@
         <v>-100</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0.001</v>
@@ -975,7 +975,7 @@
         <v>-100</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0.001</v>
@@ -995,7 +995,7 @@
         <v>-100</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>0.001</v>
@@ -1035,7 +1035,7 @@
         <v>-100</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>0.001</v>
